--- a/实验1&8/Exp1.xlsx
+++ b/实验1&8/Exp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\核相关基础实验II\实验1&amp;8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933C6919-727C-4B22-821A-DDEABFEFA6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B1A140-4737-4720-B288-5DD0EEBDFEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E298" sqref="E298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
